--- a/biology/Botanique/Parc_des_Sources_(Vichy)/Parc_des_Sources_(Vichy).xlsx
+++ b/biology/Botanique/Parc_des_Sources_(Vichy)/Parc_des_Sources_(Vichy).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc des Sources est un parc situé à Vichy, dans le département de l'Allier en région Auvergne-Rhône-Alpes, dans le quartier thermal.
@@ -514,9 +526,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parc destiné à la promenade. Établissement thermal datant de 1889 et dû aux architectes Charles Le Cœur et Lucien Woog. Sources nouvellement aménagées, et baptisées Trink Hall, inaugurées en 1903. Les galeries couvertes, dues au ferronnier d'art Émile Robert, proviennent de l'Exposition universelle de Paris de 1889, et sont remontées à Vichy entre 1899 et 1903. Le kiosque à musique est construit en 1920 et le fer à cheval composé de boutiques en 1928[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parc destiné à la promenade. Établissement thermal datant de 1889 et dû aux architectes Charles Le Cœur et Lucien Woog. Sources nouvellement aménagées, et baptisées Trink Hall, inaugurées en 1903. Les galeries couvertes, dues au ferronnier d'art Émile Robert, proviennent de l'Exposition universelle de Paris de 1889, et sont remontées à Vichy entre 1899 et 1903. Le kiosque à musique est construit en 1920 et le fer à cheval composé de boutiques en 1928.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc des Sources est situé dans le centre-ville de Vichy, dans le quartier thermal[VHY 1]. Il est délimité au nord par le hall des Sources, à l'ouest par la rue du Parc, au sud par les rues du Casino, de Banville, la place et la rue de la Source-de-l'Hôpital, et à l'est par la rue du Président-Wilson et les passages les reliant aux rues Lucas et Georges-Clemenceau.
-Historiquement, il forme un parallélogramme « compris entre le casino, la rue Cunin-Gridaine[Note 1], la rue du Parc et l'établissement thermal[2] ».
+Historiquement, il forme un parallélogramme « compris entre le casino, la rue Cunin-Gridaine[Note 1], la rue du Parc et l'établissement thermal ».
 </t>
         </is>
       </c>
@@ -577,11 +593,13 @@
           <t>Propriété du parc</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le domaine thermal de Vichy a appartenu à l'État de 1523 à 2021. Le 24 juillet 2019, un courrier du ministre de l'Action et des Comptes publics Gérald Darmanin confirme la vente du domaine thermal — qui comprend notamment le parc des Sources — à la ville de Vichy, pour 25 millions d'euros. Pour le maire Frédéric Aguilera, où le montant annoncé n'impacte pas les finances de la ville, des subventions de la région Auvergne-Rhône-Alpes et du département de l'Allier seront mobilisées pour faciliter l'acquisition du domaine. Pour le sénateur et ancien maire Claude Malhuret, cette acquisition ouvre une perspective sur la rénovation complète du parc. Pour la députée (LREM) Bénédicte Peyrol, cette vente permet le déblocage « d'une situation qui sclérose le développement thermal de Vichy depuis trop longtemps »[3].
-La cession du domaine thermal est officiellement actée le 9 décembre 2019. La concession du site, géré par la Compagnie de Vichy depuis 1988, devrait se terminer en 2030[4].
-Un arrêté du 2 mars 2021, paru au Journal officiel le 5, autorise le transfert du domaine thermal à la ville de Vichy[5]. L'acte de cession est signé le 5 mars 2021 par Bruno Le Maire, ministre de l'Économie[6] ; à compter de cette date, le parc est la propriété de la ville de Vichy.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le domaine thermal de Vichy a appartenu à l'État de 1523 à 2021. Le 24 juillet 2019, un courrier du ministre de l'Action et des Comptes publics Gérald Darmanin confirme la vente du domaine thermal — qui comprend notamment le parc des Sources — à la ville de Vichy, pour 25 millions d'euros. Pour le maire Frédéric Aguilera, où le montant annoncé n'impacte pas les finances de la ville, des subventions de la région Auvergne-Rhône-Alpes et du département de l'Allier seront mobilisées pour faciliter l'acquisition du domaine. Pour le sénateur et ancien maire Claude Malhuret, cette acquisition ouvre une perspective sur la rénovation complète du parc. Pour la députée (LREM) Bénédicte Peyrol, cette vente permet le déblocage « d'une situation qui sclérose le développement thermal de Vichy depuis trop longtemps ».
+La cession du domaine thermal est officiellement actée le 9 décembre 2019. La concession du site, géré par la Compagnie de Vichy depuis 1988, devrait se terminer en 2030.
+Un arrêté du 2 mars 2021, paru au Journal officiel le 5, autorise le transfert du domaine thermal à la ville de Vichy. L'acte de cession est signé le 5 mars 2021 par Bruno Le Maire, ministre de l'Économie ; à compter de cette date, le parc est la propriété de la ville de Vichy.
 </t>
         </is>
       </c>
@@ -612,41 +630,159 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>La création du parc
-Lorsque Letizia Bonaparte est venue à Vichy en août 1799, le site était à l'état de marécage. Une décision de Napoléon Ier de 1812, alors en partance pour Moscou, ordonne la création du parc des Sources, qui devient « un parc splendide parsemé de tilleuls et de platanes »[7], d'une superficie de six hectares, équivalente à la place Saint-Marc à Venise[8].
-En 1861, sous l'impulsion de Napoléon III qui crée aussi les parcs en bordure de l'Allier, le parc « devient un lieu de passage et de déambulation accueillant de multiples activités extra-thermales » tels que les kiosques, l'agrandissement du casino ou la création de boutiques et de restaurants[9].
-En 1901-1902, des galeries couvertes, de style Art nouveau et édifiées par Émile Robert, sont créées le long du parc « pour permettre la circulation des baigneurs, […] à l'abri de la pluie et […] du soleil ». Elles « relient les équipements essentiels à la ville d'eau : les sources, l'établissement thermal, le casino et la source de l'Hôpital » et les hôtels, selon l'historienne Fabienne Gelin[10].
+          <t>La création du parc</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque Letizia Bonaparte est venue à Vichy en août 1799, le site était à l'état de marécage. Une décision de Napoléon Ier de 1812, alors en partance pour Moscou, ordonne la création du parc des Sources, qui devient « un parc splendide parsemé de tilleuls et de platanes », d'une superficie de six hectares, équivalente à la place Saint-Marc à Venise.
+En 1861, sous l'impulsion de Napoléon III qui crée aussi les parcs en bordure de l'Allier, le parc « devient un lieu de passage et de déambulation accueillant de multiples activités extra-thermales » tels que les kiosques, l'agrandissement du casino ou la création de boutiques et de restaurants.
+En 1901-1902, des galeries couvertes, de style Art nouveau et édifiées par Émile Robert, sont créées le long du parc « pour permettre la circulation des baigneurs, […] à l'abri de la pluie et […] du soleil ». Elles « relient les équipements essentiels à la ville d'eau : les sources, l'établissement thermal, le casino et la source de l'Hôpital » et les hôtels, selon l'historienne Fabienne Gelin.
 	Promenoir du parc
 			Rue du Casino au milieu, en 2014.
 			Côté rue du Parc, en 2020.
 			Toit vitré de la galerie, côté rue du Parc, en 2019.
 Wikimedia Commons présente d’autres illustrations sur les galeries couvertes du parc des Sources.
-L'ensemble du parc (comprenant le hall des Sources ainsi que les galeries couvertes, les deux kiosques, les galeries marchandes en fer à cheval et le kiosque à musique) est classé aux monuments historiques par un arrêté du 14 juin 1994 (les arrêtés d'inscription du 27 octobre 1986 et du 13 août 1991 ont été annulés[pourquoi ?])[1].
-Rénovation du parc
-Le projet de rénovation du parc des Sources est inscrit dans le projet d'agglomération 2025, porté par la communauté d'agglomération de Vichy Val d'Allier en 2015[11], puis dans le programme AGIR 2035, porté par Vichy Communauté. Pour le parc des Sources, il concerne la rénovation du parc et de ses abords, la rénovation du casino du Grand Café et la redynamisation du fer à cheval[12].
-Le parc n'a pas connu de rénovation majeure depuis les années 1930[10],[13].
-Éléments de la rénovation
-Les grandes lignes de la restauration du parc ont été dévoilées le 5 mai 2022 à l'hôtel de ville de Vichy, sous réserve d'approbation par le ministère de la Culture. Didier Reppelin, architecte en chef des monuments historiques, rappelle le caractère exceptionnel d'un parc « ouvert en pleine ville » et universel (critères retenus par l'UNESCO)[13].
-Le parc veut marquer la transition entre deux ambiances, selon Carlos Goncalves, paysagiste architecte chargé du projet, tout en faisant du parc un lieu « vivant ». La rue du Parc, à la limite ouest, se veut être « un espace de calme et de déambulation », tandis que la rue Wilson, à la limite est, se veut « plus animée » avec les terrasses des cafés[13].
+L'ensemble du parc (comprenant le hall des Sources ainsi que les galeries couvertes, les deux kiosques, les galeries marchandes en fer à cheval et le kiosque à musique) est classé aux monuments historiques par un arrêté du 14 juin 1994 (les arrêtés d'inscription du 27 octobre 1986 et du 13 août 1991 ont été annulés[pourquoi ?]).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parc_des_Sources_(Vichy)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_des_Sources_(Vichy)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Rénovation du parc</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le projet de rénovation du parc des Sources est inscrit dans le projet d'agglomération 2025, porté par la communauté d'agglomération de Vichy Val d'Allier en 2015, puis dans le programme AGIR 2035, porté par Vichy Communauté. Pour le parc des Sources, il concerne la rénovation du parc et de ses abords, la rénovation du casino du Grand Café et la redynamisation du fer à cheval.
+Le parc n'a pas connu de rénovation majeure depuis les années 1930,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Parc_des_Sources_(Vichy)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_des_Sources_(Vichy)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Rénovation du parc</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Éléments de la rénovation</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les grandes lignes de la restauration du parc ont été dévoilées le 5 mai 2022 à l'hôtel de ville de Vichy, sous réserve d'approbation par le ministère de la Culture. Didier Reppelin, architecte en chef des monuments historiques, rappelle le caractère exceptionnel d'un parc « ouvert en pleine ville » et universel (critères retenus par l'UNESCO).
+Le parc veut marquer la transition entre deux ambiances, selon Carlos Goncalves, paysagiste architecte chargé du projet, tout en faisant du parc un lieu « vivant ». La rue du Parc, à la limite ouest, se veut être « un espace de calme et de déambulation », tandis que la rue Wilson, à la limite est, se veut « plus animée » avec les terrasses des cafés.
 Le projet prévoit :
 bâtiments :
-l'accessibilité au public du bâtiment de la source de l'Hôpital, qui sera entourée d'un miroir d'eau et d'une déambulation[13],
-le déplacement de quelques mètres du carrousel et du kiosque à journaux situés côté rue du Président-Wilson et la rénovation des deux autres kiosques[13] ;
+l'accessibilité au public du bâtiment de la source de l'Hôpital, qui sera entourée d'un miroir d'eau et d'une déambulation,
+le déplacement de quelques mètres du carrousel et du kiosque à journaux situés côté rue du Président-Wilson et la rénovation des deux autres kiosques ;
 circulation :
-la piétonnisation des rues de Belgique et Prunelle, afin d'assurer la continuité avec le parc Napoléon-III[13], ainsi que la section de la rue du Casino comprise entre la rue de Banville et la place Victor-Hugo afin de permettre la continuité dans le parc[13],
-l'élargissement de l'allée centrale à 14 m pour « dégager la vue de part et d'autre sur le hall des Sources et le palais des Congrès-opéra »[13] ;
+la piétonnisation des rues de Belgique et Prunelle, afin d'assurer la continuité avec le parc Napoléon-III, ainsi que la section de la rue du Casino comprise entre la rue de Banville et la place Victor-Hugo afin de permettre la continuité dans le parc,
+l'élargissement de l'allée centrale à 14 m pour « dégager la vue de part et d'autre sur le hall des Sources et le palais des Congrès-opéra » ;
 eau :
-sur l'allée reliant le parvis du palais des congrès (parvis Simone-Veil) au hall des Sources, l'implantation de onze fontaines jaillissantes, représentant les onze villes de la candidature UNESCO des Grandes villes d'eaux d'Europe, complétées par une série de jets plus petits[13] ;
+sur l'allée reliant le parvis du palais des congrès (parvis Simone-Veil) au hall des Sources, l'implantation de onze fontaines jaillissantes, représentant les onze villes de la candidature UNESCO des Grandes villes d'eaux d'Europe, complétées par une série de jets plus petits ;
 végétation :
-le remplacement d'arbres malades par 170 arbres, « adaptés au climat actuel », avec une pépinière autour de la galerie Napoléon-III[13],
-le remplacement du jardin des curistes (situé au nord vers le hall des Sources) par un jardin des sens, avec des oculus pour apercevoir les sources de Vichy[13],
-la création d'une roseraie à l'arrière du casino[13], lequel sera également rénové.
+le remplacement d'arbres malades par 170 arbres, « adaptés au climat actuel », avec une pépinière autour de la galerie Napoléon-III,
+le remplacement du jardin des curistes (situé au nord vers le hall des Sources) par un jardin des sens, avec des oculus pour apercevoir les sources de Vichy,
+la création d'une roseraie à l'arrière du casino, lequel sera également rénové.
 			La rue du Casino (après l'intersection avec la rue de Banville, en mai 2023) deviendra piétonne.
 			L'une des principales allées du parc, en avril 2023.
-Apports financiers et sélection pour le loto du patrimoine
-Le 22 février 2022, la ville de Vichy signe une convention patrimoniale avec l'État pour un montant de 11,5 millions d'euros sur la période de 2022 à 2026. Cette opération vise à restaurer et valoriser le patrimoine de la ville, dont le parc des Sources[14], qui bénéficie d'une enveloppe de 6,435 millions d'euros pour sa rénovation[15].
-Le 14 mars 2022, la Fondation du patrimoine sélectionne le parc des Sources, seul site retenu pour le loto du patrimoine en Auvergne-Rhône-Alpes[10]. Le 14 septembre 2022, le montant de l'aide est connu : 500 000 euros, le maximum possible selon le maire, qui annonce activer un mécénat en « [encourageant] les entreprises et les habitants à participer » à la rénovation du site[16]. Le chèque est remis le 17 septembre 2022 à la ville, dans l'enceinte de l'opéra[17].
-Le montant du projet est initialement fixé à 32 millions d'euros[13]. Lors du conseil municipal du 5 décembre 2022, la répartition des subventions (22 millions d'euros, soit plus de 80 % de ce que prévoyait la ville) a été fixée ainsi[18] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Parc_des_Sources_(Vichy)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_des_Sources_(Vichy)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Rénovation du parc</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Apports financiers et sélection pour le loto du patrimoine</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 22 février 2022, la ville de Vichy signe une convention patrimoniale avec l'État pour un montant de 11,5 millions d'euros sur la période de 2022 à 2026. Cette opération vise à restaurer et valoriser le patrimoine de la ville, dont le parc des Sources, qui bénéficie d'une enveloppe de 6,435 millions d'euros pour sa rénovation.
+Le 14 mars 2022, la Fondation du patrimoine sélectionne le parc des Sources, seul site retenu pour le loto du patrimoine en Auvergne-Rhône-Alpes. Le 14 septembre 2022, le montant de l'aide est connu : 500 000 euros, le maximum possible selon le maire, qui annonce activer un mécénat en « [encourageant] les entreprises et les habitants à participer » à la rénovation du site. Le chèque est remis le 17 septembre 2022 à la ville, dans l'enceinte de l'opéra.
+Le montant du projet est initialement fixé à 32 millions d'euros. Lors du conseil municipal du 5 décembre 2022, la répartition des subventions (22 millions d'euros, soit plus de 80 % de ce que prévoyait la ville) a été fixée ainsi :
 7 millions d'euros de la région Auvergne-Rhône-Alpes ;
 6,5 millions d'euros de l'État ;
 2 millions d'euros + 2 millions d'euros supplémentaires du département de l'Allier ;
@@ -655,19 +791,136 @@
 500 000 euros du Loto du patrimoine ;
 500 000 euros du mécénat.
 Les travaux devraient se terminer à la fin de l'année 2025[VHY 3].
-Enquête publique
-Le projet de rénovation du parc a fait l'objet d'une enquête publique, qui s'est tenue du 17 avril au 17 mai 2023[19].
-Le conseil municipal de Vichy a reçu un avis favorable du commissaire-enquêteur le 26 juin 2023, même si l'opposition municipale conteste l'utilité des fontaines et des miroirs d'eau[20].
-France Nature Environnement Allier a toutefois exprimé son opposition aux travaux, celle-ci s'inquiétant « du manque de vision globale du dossier », « de la mise en péril de la biodiversité », « de la sécurisation de l'eau et de l'impact sur les nappes phréatiques » et « de l'artificialisation des sols »[21].
-Fouilles archéologiques
-Un diagnostic archéologique préventif réalisé en 2021 a mis en évidence dix-huit sondages. Commencées le 28 juin, à l'initiative du service d'archéologie préventive du département de l'Allier, les fouilles ont révélé des vestiges de l'ancien hôpital civil construit en 1763 ainsi qu'un ancien bras de l'Allier datant de 20 000 à 30 000 ans[22].
-Au nord, le site actuellement occupé par le hall des Sources « renferme les vestiges d'une installation romaine à la construction soignée et riche en matériaux luxueux[23] », signe d'une activité thermale persistante dans l'Antiquité (dernier état de sol entre la fin du Ier siècle et le début du IIIe siècle)[23].
-Avec l'essor du thermalisme au XIXe siècle, les thermes de deuxième classe sont construits en 1857 à l'ouest du hall des Sources ; un sondage révèle les fondations du bâtiment[23], arasées pour les besoins de la construction d'un parking dans les années 1990[24], tandis qu'un deuxième situé plus près du hall a mis au jour son extension de 1898 et une cave comblée par les éléments de démolition d'une ancienne buvette qui a existé de 1903 à 1928[23], dont du carrelage émaillé et des fragments de crachoirs d'un gargarisoire[24].
-À l'emplacement de la galerie du fer à cheval, un sondage révèle une pièce avec annexe correspondant à la maison de l'abbé Delarbre, « donnée au XVIIIe siècle pour la création [d'un] hôpital civil entre 1848 et 1853 », et qui laisse sa place, après sa destruction et le transfert de la parcelle au parc des Sources, à la galerie marchande[23].
-Une autre série de fouilles est menée en 2023 par l'Institut national de recherches archéologiques préventives (Inrap) autour du pavillon de la source de l'Hôpital. Les vestiges contemporains de la cave de l'ancien hôtel Florida, démoli en 1975, ont été découverts[25].
-Travaux
-Les travaux du parc à proprement parler ont commencé le 4 septembre 2023 avec l'abattage de près de cent arbres[26]. D'autres lieux emblématiques du parc sont déplacés (tels que le carrousel), réhabilités (l'un des deux kiosques situé rue Wilson, qui comprendra des toilettes publiques) ou rénovés[27].
-Autour du parc, certaines voies sont modifiées. La rénovation des rue et place de la Source-de-l'Hôpital, à la limite sud, sont achevées au printemps ; celles des rues du Parc, de Banville et de l'extrémité sud de l'avenue Thermale sont prévues à la rentrée de septembre 2024[28]. Par ailleurs, le relais de la flamme olympique, prévu le 21 juin 2024 dans la cité thermale, devrait passer par le parc des Sources partiellement rénové[28].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Parc_des_Sources_(Vichy)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_des_Sources_(Vichy)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rénovation du parc</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Enquête publique</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le projet de rénovation du parc a fait l'objet d'une enquête publique, qui s'est tenue du 17 avril au 17 mai 2023.
+Le conseil municipal de Vichy a reçu un avis favorable du commissaire-enquêteur le 26 juin 2023, même si l'opposition municipale conteste l'utilité des fontaines et des miroirs d'eau.
+France Nature Environnement Allier a toutefois exprimé son opposition aux travaux, celle-ci s'inquiétant « du manque de vision globale du dossier », « de la mise en péril de la biodiversité », « de la sécurisation de l'eau et de l'impact sur les nappes phréatiques » et « de l'artificialisation des sols ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Parc_des_Sources_(Vichy)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_des_Sources_(Vichy)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Rénovation du parc</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Fouilles archéologiques</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un diagnostic archéologique préventif réalisé en 2021 a mis en évidence dix-huit sondages. Commencées le 28 juin, à l'initiative du service d'archéologie préventive du département de l'Allier, les fouilles ont révélé des vestiges de l'ancien hôpital civil construit en 1763 ainsi qu'un ancien bras de l'Allier datant de 20 000 à 30 000 ans.
+Au nord, le site actuellement occupé par le hall des Sources « renferme les vestiges d'une installation romaine à la construction soignée et riche en matériaux luxueux », signe d'une activité thermale persistante dans l'Antiquité (dernier état de sol entre la fin du Ier siècle et le début du IIIe siècle).
+Avec l'essor du thermalisme au XIXe siècle, les thermes de deuxième classe sont construits en 1857 à l'ouest du hall des Sources ; un sondage révèle les fondations du bâtiment, arasées pour les besoins de la construction d'un parking dans les années 1990, tandis qu'un deuxième situé plus près du hall a mis au jour son extension de 1898 et une cave comblée par les éléments de démolition d'une ancienne buvette qui a existé de 1903 à 1928, dont du carrelage émaillé et des fragments de crachoirs d'un gargarisoire.
+À l'emplacement de la galerie du fer à cheval, un sondage révèle une pièce avec annexe correspondant à la maison de l'abbé Delarbre, « donnée au XVIIIe siècle pour la création [d'un] hôpital civil entre 1848 et 1853 », et qui laisse sa place, après sa destruction et le transfert de la parcelle au parc des Sources, à la galerie marchande.
+Une autre série de fouilles est menée en 2023 par l'Institut national de recherches archéologiques préventives (Inrap) autour du pavillon de la source de l'Hôpital. Les vestiges contemporains de la cave de l'ancien hôtel Florida, démoli en 1975, ont été découverts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Parc_des_Sources_(Vichy)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_des_Sources_(Vichy)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Rénovation du parc</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les travaux du parc à proprement parler ont commencé le 4 septembre 2023 avec l'abattage de près de cent arbres. D'autres lieux emblématiques du parc sont déplacés (tels que le carrousel), réhabilités (l'un des deux kiosques situé rue Wilson, qui comprendra des toilettes publiques) ou rénovés.
+Autour du parc, certaines voies sont modifiées. La rénovation des rue et place de la Source-de-l'Hôpital, à la limite sud, sont achevées au printemps ; celles des rues du Parc, de Banville et de l'extrémité sud de l'avenue Thermale sont prévues à la rentrée de septembre 2024. Par ailleurs, le relais de la flamme olympique, prévu le 21 juin 2024 dans la cité thermale, devrait passer par le parc des Sources partiellement rénové.
 	Aperçu des travaux de rénovation du parc (mars 2024)
 			Avenue du Général-Dwight-Eisenhower.
 			Promenoir, côté rue Wilson.
@@ -676,41 +929,115 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Parc_des_Sources_(Vichy)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parc_des_Sources_(Vichy)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Parc_des_Sources_(Vichy)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_des_Sources_(Vichy)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Autour du parc</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Hall des Sources
-Le hall des Sources, de l'architecte Charles Le Cœur, abrite l'ensemble des sources thermales de Vichy.
-Promenoir (galerie couverte)
-La galerie couverte (appelée aussi promenoir) a été créée en 1901-1902 par le ferronnier Émile Robert. Malgré des travaux de peinture dans les années 2010[réf. nécessaire], son état reste inquiétant : lambrissage, décors, verrière et structure métallique sont dégradés[10]. La restauration de la galerie, à elle seule, coûte 7 millions d'euros[16].
-Palais des congrès, théâtre et opéra
-Casino
-Le casino Vichy Grand Café, propriété du groupe Partouche, va être également rénové pour un montant de 10 millions d'euros[VHY 4].
-La surface de jeux passera de 500 à 900 m2, afin d'accueillir plus de machines à sous ; l'entrée principale se fera du côté de la rue du Président-Wilson[29].
-Kiosque à musique</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Hall des Sources</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le hall des Sources, de l'architecte Charles Le Cœur, abrite l'ensemble des sources thermales de Vichy.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Parc_des_Sources_(Vichy)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_des_Sources_(Vichy)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Autour du parc</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Promenoir (galerie couverte)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La galerie couverte (appelée aussi promenoir) a été créée en 1901-1902 par le ferronnier Émile Robert. Malgré des travaux de peinture dans les années 2010[réf. nécessaire], son état reste inquiétant : lambrissage, décors, verrière et structure métallique sont dégradés. La restauration de la galerie, à elle seule, coûte 7 millions d'euros.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Parc_des_Sources_(Vichy)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_des_Sources_(Vichy)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Autour du parc</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Casino</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le casino Vichy Grand Café, propriété du groupe Partouche, va être également rénové pour un montant de 10 millions d'euros[VHY 4].
+La surface de jeux passera de 500 à 900 m2, afin d'accueillir plus de machines à sous ; l'entrée principale se fera du côté de la rue du Président-Wilson.
+</t>
         </is>
       </c>
     </row>
